--- a/results/stratified_by_gender/MLCA Model fitting information_Men.xlsx
+++ b/results/stratified_by_gender/MLCA Model fitting information_Men.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ccwang\Documents\GitHub\LSHTMproject\results\stratified_by_gender\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C268108-C204-465F-B59F-43404B7FEC5D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F11791D8-22AE-462C-8C68-2618BBB81F88}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8010" xr2:uid="{CFB15832-5D48-447A-9E5A-3316ACC5490D}"/>
   </bookViews>
@@ -419,7 +419,7 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -699,6 +699,27 @@
       <c r="B10">
         <v>3</v>
       </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>224</v>
+      </c>
+      <c r="E10">
+        <v>-68801.981</v>
+      </c>
+      <c r="F10">
+        <v>138051.962</v>
+      </c>
+      <c r="G10">
+        <v>139669.26300000001</v>
+      </c>
+      <c r="H10">
+        <v>138957.424</v>
+      </c>
+      <c r="I10">
+        <v>0.64100000000000001</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11">
@@ -715,6 +736,27 @@
       <c r="B12">
         <v>4</v>
       </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>119</v>
+      </c>
+      <c r="E12">
+        <v>-68608.08</v>
+      </c>
+      <c r="F12">
+        <v>137454.16</v>
+      </c>
+      <c r="G12">
+        <v>138313.351</v>
+      </c>
+      <c r="H12">
+        <v>137935.18599999999</v>
+      </c>
+      <c r="I12">
+        <v>0.67900000000000005</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13">
@@ -723,6 +765,27 @@
       <c r="B13">
         <v>4</v>
       </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>179</v>
+      </c>
+      <c r="E13">
+        <v>-68338.831999999995</v>
+      </c>
+      <c r="F13">
+        <v>137035.663</v>
+      </c>
+      <c r="G13">
+        <v>138328.06</v>
+      </c>
+      <c r="H13">
+        <v>137759.223</v>
+      </c>
+      <c r="I13">
+        <v>0.69199999999999995</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14">
@@ -730,6 +793,27 @@
       </c>
       <c r="B14">
         <v>4</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>239</v>
+      </c>
+      <c r="E14">
+        <v>-68187.307000000001</v>
+      </c>
+      <c r="F14">
+        <v>136852.61499999999</v>
+      </c>
+      <c r="G14">
+        <v>138578.217</v>
+      </c>
+      <c r="H14">
+        <v>137818.709</v>
+      </c>
+      <c r="I14">
+        <v>0.67300000000000004</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.4">

--- a/results/stratified_by_gender/MLCA Model fitting information_Men.xlsx
+++ b/results/stratified_by_gender/MLCA Model fitting information_Men.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ccwang\Documents\GitHub\LSHTMproject\results\stratified_by_gender\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F11791D8-22AE-462C-8C68-2618BBB81F88}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30748706-2626-4D33-9F22-4EB8EB02DD83}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8010" xr2:uid="{CFB15832-5D48-447A-9E5A-3316ACC5490D}"/>
   </bookViews>
@@ -419,7 +419,7 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -823,6 +823,27 @@
       <c r="B15">
         <v>4</v>
       </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>299</v>
+      </c>
+      <c r="E15">
+        <v>-68141.895999999993</v>
+      </c>
+      <c r="F15">
+        <v>136881.79199999999</v>
+      </c>
+      <c r="G15">
+        <v>139040.6</v>
+      </c>
+      <c r="H15">
+        <v>138090.421</v>
+      </c>
+      <c r="I15">
+        <v>0.70599999999999996</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16">
@@ -832,15 +853,36 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>2</v>
       </c>
       <c r="B17">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>149</v>
+      </c>
+      <c r="E17">
+        <v>-68152.822</v>
+      </c>
+      <c r="F17">
+        <v>136603.644</v>
+      </c>
+      <c r="G17">
+        <v>137679.43799999999</v>
+      </c>
+      <c r="H17">
+        <v>137205.93700000001</v>
+      </c>
+      <c r="I17">
+        <v>0.72099999999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>3</v>
       </c>
@@ -848,7 +890,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>4</v>
       </c>
@@ -856,7 +898,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>5</v>
       </c>
@@ -864,7 +906,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>6</v>
       </c>
@@ -872,7 +914,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>2</v>
       </c>
@@ -880,7 +922,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>3</v>
       </c>
@@ -888,7 +930,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>4</v>
       </c>
@@ -896,7 +938,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>5</v>
       </c>
@@ -904,7 +946,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>6</v>
       </c>

--- a/results/stratified_by_gender/MLCA Model fitting information_Men.xlsx
+++ b/results/stratified_by_gender/MLCA Model fitting information_Men.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ccwang\Documents\GitHub\LSHTMproject\results\stratified_by_gender\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30748706-2626-4D33-9F22-4EB8EB02DD83}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39457244-201E-4D6C-B2BD-5E92EFA43C42}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8010" xr2:uid="{CFB15832-5D48-447A-9E5A-3316ACC5490D}"/>
   </bookViews>
@@ -419,7 +419,7 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
